--- a/database_arch.xlsx
+++ b/database_arch.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="54" uniqueCount="44">
   <si>
     <t xml:space="preserve">message</t>
   </si>
@@ -67,6 +67,9 @@
     <t xml:space="preserve">is_group_message</t>
   </si>
   <si>
+    <t xml:space="preserve">timestamp</t>
+  </si>
+  <si>
     <t xml:space="preserve">birthday</t>
   </si>
   <si>
@@ -77,9 +80,6 @@
   </si>
   <si>
     <t xml:space="preserve">is_vip</t>
-  </si>
-  <si>
-    <t xml:space="preserve">timestamp</t>
   </si>
   <si>
     <t xml:space="preserve">Login</t>
@@ -166,6 +166,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -187,6 +188,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -231,12 +233,16 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -366,215 +372,218 @@
   <dimension ref="C4:I27"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="E28" activeCellId="0" sqref="E28"/>
+      <selection pane="topLeft" activeCell="D42" activeCellId="0" sqref="D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="41.87"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="57.16"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="38.11"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="0" width="39.78"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="1" width="41.88"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="57.16"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="1" width="38.11"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="9" min="9" style="1" width="39.78"/>
   </cols>
   <sheetData>
     <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C4" s="0" t="s">
+      <c r="C4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E4" s="1" t="s">
+      <c r="E4" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="G4" s="1" t="s">
+      <c r="G4" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="I4" s="1" t="s">
+      <c r="I4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C5" s="0" t="s">
+      <c r="C5" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="E5" s="0" t="s">
+      <c r="E5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G5" s="0" t="s">
+      <c r="G5" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="I5" s="0" t="s">
+      <c r="I5" s="1" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C6" s="0" t="s">
+      <c r="C6" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E6" s="0" t="s">
+      <c r="E6" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="0" t="s">
+      <c r="G6" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="I6" s="0" t="s">
+      <c r="I6" s="1" t="s">
         <v>11</v>
       </c>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C7" s="0" t="s">
+      <c r="C7" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E7" s="0" t="s">
+      <c r="E7" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="G7" s="0" t="s">
+      <c r="G7" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="I7" s="0" t="s">
+      <c r="I7" s="1" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E8" s="0" t="s">
+      <c r="C8" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="G8" s="0" t="s">
+      <c r="E8" s="1" t="s">
         <v>16</v>
       </c>
-      <c r="I8" s="0" t="s">
+      <c r="G8" s="1" t="s">
         <v>17</v>
       </c>
+      <c r="I8" s="1" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E9" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="I9" s="0" t="s">
+      <c r="E9" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="I9" s="1" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C10" s="0" t="s">
+      <c r="C10" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="E10" s="0" t="s">
+      <c r="E10" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C11" s="0" t="s">
+      <c r="C11" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="0" t="s">
+      <c r="E11" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C12" s="0" t="s">
+      <c r="C12" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="E12" s="0" t="s">
+      <c r="E12" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C14" s="0" t="s">
+      <c r="C14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="E14" s="1" t="s">
+      <c r="E14" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="G14" s="1" t="s">
+      <c r="G14" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="I14" s="1" t="s">
+      <c r="I14" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E15" s="0" t="s">
+      <c r="E15" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="G15" s="0" t="s">
+      <c r="G15" s="1" t="s">
         <v>28</v>
       </c>
-      <c r="I15" s="0" t="s">
+      <c r="I15" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E16" s="0" t="s">
+      <c r="E16" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="G16" s="0" t="s">
+      <c r="G16" s="1" t="s">
         <v>30</v>
       </c>
-      <c r="I16" s="0" t="s">
+      <c r="I16" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C17" s="0" t="s">
+      <c r="C17" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="E17" s="0" t="s">
+      <c r="E17" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="G17" s="0" t="s">
+      <c r="G17" s="1" t="s">
         <v>34</v>
       </c>
-      <c r="I17" s="0" t="s">
+      <c r="I17" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C18" s="0" t="s">
+      <c r="C18" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="0" t="s">
+      <c r="I18" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C19" s="0" t="s">
+      <c r="C19" s="1" t="s">
         <v>37</v>
       </c>
     </row>
     <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C21" s="0" t="s">
+      <c r="C21" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="E21" s="1" t="s">
+      <c r="E21" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="22" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E22" s="0" t="s">
+      <c r="E22" s="1" t="s">
         <v>13</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="E23" s="0" t="s">
+      <c r="E23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C24" s="0" t="s">
+      <c r="C24" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="E24" s="0" t="s">
+      <c r="E24" s="1" t="s">
         <v>41</v>
       </c>
     </row>
     <row r="25" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C25" s="0" t="s">
+      <c r="C25" s="1" t="s">
         <v>42</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>19</v>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="C27" s="0" t="s">
+      <c r="C27" s="1" t="s">
         <v>43</v>
       </c>
     </row>
@@ -583,8 +592,8 @@
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
   <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
-    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
-    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+    <oddHeader>&amp;C&amp;"Times New Roman,Обычный"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Обычный"&amp;12Page &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
 </file>